--- a/Packages/cn.etetet.equipment/Luban/Config/Base/__tables__.xlsx
+++ b/Packages/cn.etetet.equipment/Luban/Config/Base/__tables__.xlsx
@@ -1,39 +1,61 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11102"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.equipment/Luban/Config/Base/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F6D5E0-5372-AA4E-9539-ED2B1A6092AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
+<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <Application>Microsoft Macintosh Excel</Application>
+  <DocSecurity>0</DocSecurity>
+  <ScaleCrop>false</ScaleCrop>
+  <HeadingPairs>
+    <vt:vector size="2" baseType="variant">
+      <vt:variant>
+        <vt:lpstr>工作表</vt:lpstr>
+      </vt:variant>
+      <vt:variant>
+        <vt:i4>1</vt:i4>
+      </vt:variant>
+    </vt:vector>
+  </HeadingPairs>
+  <TitlesOfParts>
+    <vt:vector size="1" baseType="lpstr">
+      <vt:lpstr>Sheet1</vt:lpstr>
+    </vt:vector>
+  </TitlesOfParts>
+  <LinksUpToDate>false</LinksUpToDate>
+  <SharedDoc>false</SharedDoc>
+  <HyperlinksChanged>false</HyperlinksChanged>
+  <AppVersion>16.0300</AppVersion>
+</Properties>
+</file>
+
+<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
+<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <dc:creator>TU</dc:creator>
+  <cp:lastModifiedBy>tanghai</cp:lastModifiedBy>
+  <dcterms:created xsi:type="dcterms:W3CDTF">2021-08-02T03:12:00Z</dcterms:created>
+  <dcterms:modified xsi:type="dcterms:W3CDTF">2025-11-10T13:11:29Z</dcterms:modified>
+</cp:coreProperties>
+</file>
+
+<file path=docProps\custom.xml><?xml version="1.0" encoding="utf-8"?>
+<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <property fmtid="{D5CDD505-2E9C-101B-9397-08002B2CF9AE}" pid="2" name="ICV">
+    <vt:lpwstr>FC38D93E77DD4E54B072D89ECFDD8B3E</vt:lpwstr>
+  </property>
+  <property fmtid="{D5CDD505-2E9C-101B-9397-08002B2CF9AE}" pid="3" name="KSOProductBuildVer">
+    <vt:lpwstr>2052-11.8.2.11813</vt:lpwstr>
+  </property>
+</Properties>
+</file>
+
+<file path=xl\calcChain.xml><?xml version="1.0" encoding="utf-8"?>
+<calcChain xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <c r="L4" i="1" l="1"/>
+  <c r="D4" i="1"/>
+  <c r="C4" i="1"/>
+</calcChain>
+</file>
+
+<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -123,10 +145,22 @@
     <t>../../../../cn.etetet.equipment/Luban/Config/Datas/Equipment.xlsx</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>HeroConfig</t>
+  </si>
+  <si>
+    <t>ET.HeroConfigCategory</t>
+  </si>
+  <si>
+    <t>../../../../cn.etetet.equipment/Luban/Config/Datas/Hero.xlsx</t>
+  </si>
+  <si>
+    <t>HeroConfigCategory</t>
+  </si>
 </sst>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
@@ -212,7 +246,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -468,7 +502,40 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11102"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.equipment/Luban/Config/Base/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F6D5E0-5372-AA4E-9539-ED2B1A6092AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
@@ -600,56 +667,25 @@
         <v>EquipmentConfigCategory</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2"/>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
